--- a/biology/Médecine/Équivalent_métabolique/Équivalent_métabolique.xlsx
+++ b/biology/Médecine/Équivalent_métabolique/Équivalent_métabolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quivalent_m%C3%A9tabolique</t>
+          <t>Équivalent_métabolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équivalent métabolique (Metabolic Equivalent of Task, MET) est une méthode permettant de mesurer l'intensité d'une activité physique et la dépense énergétique. On définit le MET comme le rapport de l'activité sur la demande du métabolisme de base. Le MET permet de quantifier l'activité physique et de procéder à des arbitrages, notamment dans le cadre des politiques de santé publique ou encore de la pratique sportive à l'école. 
 L'échelle d'équivalence métabolique va aux extrêmes de 1,0 MET (sommeil) à 23,0 MET (course en sprint à plus de 22,5 km/h). Plus l'intensité de l'activité est élevée, plus le nombre est élevé. L'unité de base de 1 MET utilisée par convention est de :
@@ -518,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quivalent_m%C3%A9tabolique</t>
+          <t>Équivalent_métabolique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,9 +548,11 @@
           <t>Échelle de base</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept MET est basé sur une approche statistique et fut créé en 1993 principalement pour réaliser des études épidémiologiques où l'on demandait aux répondants combien d'heures étaient consacrées aux diverses activités[1]. Ce tableau a été revu et corrigé, en 2000, en 2011[2],[3], puis à nouveau en 2024[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept MET est basé sur une approche statistique et fut créé en 1993 principalement pour réaliser des études épidémiologiques où l'on demandait aux répondants combien d'heures étaient consacrées aux diverses activités. Ce tableau a été revu et corrigé, en 2000, en 2011 puis à nouveau en 2024.
 Échelle de base de l'équivalence métabolique :
 Dans tous les cas, il faut toutefois ne pas oublier qu'il s'agit d'un outil basé sur des statistiques larges, établissant des moyennes et que la dépense énergétique individuelle réelle peut être différente de la valeur obtenue par cet outil.
 Le MET est toutefois un outil suffisant pour les usages où on ne recherche qu'une estimation dans un but global de santé publique ou pour les loisirs, mais pour l'entrainement sportif de haut niveau ou des traitements médicaux précis, le sujet passera des tests personnels (spirométrie, test d'effort, etc.).
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quivalent_m%C3%A9tabolique</t>
+          <t>Équivalent_métabolique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -570,9 +584,11 @@
           <t>Autres usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les MET sont également utilisés par le Fit Meter qui accompagne le jeu Wii Fit U de  Nintendo, et le compendium sert de référence pour des calculateurs de calories consommées [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les MET sont également utilisés par le Fit Meter qui accompagne le jeu Wii Fit U de  Nintendo, et le compendium sert de référence pour des calculateurs de calories consommées .
 </t>
         </is>
       </c>
